--- a/GerarRelatorioTeste/Relatorio-Documentos-SISFIES16042025(bases-24.2)-09h.xlsx
+++ b/GerarRelatorioTeste/Relatorio-Documentos-SISFIES16042025(bases-24.2)-09h.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -224,96 +224,96 @@
     <t>Modalidade</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>DOC123456</t>
+  </si>
+  <si>
+    <t>Aprovado</t>
+  </si>
+  <si>
+    <t>Sul</t>
+  </si>
+  <si>
+    <t>INST001</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Sul</t>
+  </si>
+  <si>
+    <t>CAMP001</t>
+  </si>
+  <si>
+    <t>Campus Central</t>
+  </si>
+  <si>
+    <t>CURSO001</t>
+  </si>
+  <si>
+    <t>Engenharia de Software</t>
+  </si>
+  <si>
+    <t>teste00000000</t>
+  </si>
+  <si>
+    <t>123.456.789-00</t>
+  </si>
+  <si>
+    <t>Importação Inicial</t>
+  </si>
+  <si>
+    <t>Sala 202</t>
+  </si>
+  <si>
+    <t>1ª Chamada</t>
+  </si>
+  <si>
+    <t>Vestibular</t>
+  </si>
+  <si>
+    <t>2025/1</t>
+  </si>
+  <si>
+    <t>Seletivo</t>
+  </si>
+  <si>
+    <t>Passaporte</t>
+  </si>
+  <si>
+    <t>MEM123</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
+    <t>Nenhuma</t>
+  </si>
+  <si>
+    <t>Sem observações</t>
+  </si>
+  <si>
+    <t>Ana Oliveira</t>
+  </si>
+  <si>
+    <t>aoliveira</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>2025-01-10 10:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-12 15:00:00.0</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
-    <t>DOC123456</t>
-  </si>
-  <si>
-    <t>Aprovado</t>
-  </si>
-  <si>
-    <t>Sul</t>
-  </si>
-  <si>
-    <t>INST001</t>
-  </si>
-  <si>
-    <t>Universidade Federal do Sul</t>
-  </si>
-  <si>
-    <t>CAMP001</t>
-  </si>
-  <si>
-    <t>Campus Central</t>
-  </si>
-  <si>
-    <t>CURSO001</t>
-  </si>
-  <si>
-    <t>Engenharia de Software</t>
-  </si>
-  <si>
-    <t>teste00000000</t>
-  </si>
-  <si>
-    <t>123.456.789-00</t>
-  </si>
-  <si>
-    <t>Importação Inicial</t>
-  </si>
-  <si>
-    <t>2.02409E+11</t>
-  </si>
-  <si>
-    <t>Sala 202</t>
-  </si>
-  <si>
-    <t>1ª Chamada</t>
-  </si>
-  <si>
-    <t>Vestibular</t>
-  </si>
-  <si>
-    <t>2025/1</t>
-  </si>
-  <si>
-    <t>Seletivo</t>
-  </si>
-  <si>
-    <t>Passaporte</t>
-  </si>
-  <si>
-    <t>MEM123</t>
-  </si>
-  <si>
-    <t>Ativo</t>
-  </si>
-  <si>
-    <t>Nenhuma</t>
-  </si>
-  <si>
-    <t>Sem observações</t>
-  </si>
-  <si>
-    <t>Ana Oliveira</t>
-  </si>
-  <si>
-    <t>aoliveira</t>
-  </si>
-  <si>
-    <t>Pendente</t>
-  </si>
-  <si>
-    <t>2025-01-10 10:00:00.0</t>
-  </si>
-  <si>
-    <t>2025-01-12 15:00:00.0</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -392,6 +392,9 @@
     <t>Presencial</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
@@ -407,9 +410,33 @@
     <t>20</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>João Silva</t>
+  </si>
+  <si>
+    <t>joao@email.com</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
@@ -455,12 +482,6 @@
     <t>36</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
@@ -480,30 +501,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>João Silva</t>
-  </si>
-  <si>
-    <t>joao@email.com</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>3</t>
@@ -544,18 +541,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -578,104 +570,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
@@ -690,75 +587,75 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.63671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.75" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.7578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.9765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="15.2890625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.7421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.93359375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="25.953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.94921875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="15.17578125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="10.85546875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.6953125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="22.40234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="14.48046875" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="15.0859375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="17.640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="18.41015625" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="17.12109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="12.68359375" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="12.13671875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="17.296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="18.0390625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="16.80859375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="14.41796875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="11.890625" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="11.9375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.33984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.43359375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="11.75" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="17.01171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="6.765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="14.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="14.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.00390625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.14453125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="11.54296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.70703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="6.59375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="13.703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="16.52734375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="11.8984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="13.8359375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.0234375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="13.4609375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="16.6015625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="21.33984375" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="23.0859375" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="17.9375" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="24.75" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="16.8828125" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="21.87109375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="13.203125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.30859375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="17.52734375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="20.6484375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="18.37109375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="15.56640625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="17.81640625" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="24.78125" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="22.9296875" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" width="22.640625" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="22.48046875" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="17.578125" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="24.23828125" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="16.5703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="21.41796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="12.91015625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="23.77734375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="17.17578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="20.296875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="18.00390625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="15.2890625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="17.43359375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="24.26953125" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="22.421875" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="22.13671875" customWidth="true" bestFit="true"/>
     <col min="47" max="47" width="22.40234375" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" width="15.45703125" customWidth="true" bestFit="true"/>
-    <col min="49" max="49" width="19.26171875" customWidth="true" bestFit="true"/>
-    <col min="50" max="50" width="12.72265625" customWidth="true" bestFit="true"/>
-    <col min="51" max="51" width="15.4296875" customWidth="true" bestFit="true"/>
-    <col min="52" max="52" width="10.90625" customWidth="true" bestFit="true"/>
-    <col min="53" max="53" width="51.62890625" customWidth="true" bestFit="true"/>
-    <col min="54" max="54" width="18.56640625" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="15.18359375" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="12.39453125" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="15.0546875" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="10.7109375" customWidth="true" bestFit="true"/>
+    <col min="53" max="53" width="50.68359375" customWidth="true" bestFit="true"/>
+    <col min="54" max="54" width="18.29296875" customWidth="true" bestFit="true"/>
     <col min="55" max="55" width="12.70703125" customWidth="true" bestFit="true"/>
-    <col min="56" max="56" width="13.41796875" customWidth="true" bestFit="true"/>
-    <col min="57" max="57" width="21.35546875" customWidth="true" bestFit="true"/>
-    <col min="58" max="58" width="16.734375" customWidth="true" bestFit="true"/>
-    <col min="59" max="59" width="21.78125" customWidth="true" bestFit="true"/>
+    <col min="56" max="56" width="13.0546875" customWidth="true" bestFit="true"/>
+    <col min="57" max="57" width="20.76953125" customWidth="true" bestFit="true"/>
+    <col min="58" max="58" width="16.3828125" customWidth="true" bestFit="true"/>
+    <col min="59" max="59" width="21.2421875" customWidth="true" bestFit="true"/>
     <col min="60" max="60" width="11.2109375" customWidth="true" bestFit="true"/>
-    <col min="61" max="61" width="19.20703125" customWidth="true" bestFit="true"/>
-    <col min="62" max="62" width="21.16015625" customWidth="true" bestFit="true"/>
+    <col min="61" max="61" width="18.70703125" customWidth="true" bestFit="true"/>
+    <col min="62" max="62" width="20.7265625" customWidth="true" bestFit="true"/>
     <col min="63" max="63" width="14.0703125" customWidth="true" bestFit="true"/>
-    <col min="64" max="64" width="25.9609375" customWidth="true" bestFit="true"/>
-    <col min="65" max="65" width="26.28125" customWidth="true" bestFit="true"/>
-    <col min="66" max="66" width="47.7109375" customWidth="true" bestFit="true"/>
-    <col min="67" max="67" width="36.72265625" customWidth="true" bestFit="true"/>
-    <col min="68" max="68" width="23.05078125" customWidth="true" bestFit="true"/>
-    <col min="69" max="69" width="20.09375" customWidth="true" bestFit="true"/>
-    <col min="70" max="70" width="12.0625" customWidth="true" bestFit="true"/>
+    <col min="64" max="64" width="25.45703125" customWidth="true" bestFit="true"/>
+    <col min="65" max="65" width="25.79296875" customWidth="true" bestFit="true"/>
+    <col min="66" max="66" width="46.8984375" customWidth="true" bestFit="true"/>
+    <col min="67" max="67" width="36.0859375" customWidth="true" bestFit="true"/>
+    <col min="68" max="68" width="22.74609375" customWidth="true" bestFit="true"/>
+    <col min="69" max="69" width="19.67578125" customWidth="true" bestFit="true"/>
+    <col min="70" max="70" width="11.7578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1017,61 +914,61 @@
         <v>83</v>
       </c>
       <c r="O2" t="n" s="2">
-        <v>168144.0</v>
-      </c>
-      <c r="P2" t="n" s="3">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q2" t="s" s="0">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P2" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q2" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R2" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="S2" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S2" t="s" s="0">
+      <c r="T2" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="U2" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U2" t="s" s="0">
+      <c r="V2" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V2" t="s" s="0">
+      <c r="W2" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W2" t="s" s="0">
+      <c r="X2" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X2" t="s" s="0">
+      <c r="Y2" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y2" t="s" s="0">
+      <c r="Z2" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z2" t="s" s="0">
+      <c r="AA2" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA2" t="s" s="0">
+      <c r="AB2" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB2" t="s" s="0">
+      <c r="AC2" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC2" t="s" s="0">
+      <c r="AD2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD2" t="s" s="0">
+      <c r="AE2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE2" t="s" s="0">
+      <c r="AF2" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF2" t="s" s="0">
+      <c r="AG2" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH2" t="s" s="0">
         <v>100</v>
@@ -1119,7 +1016,7 @@
         <v>82</v>
       </c>
       <c r="AW2" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX2" t="s" s="0">
         <v>113</v>
@@ -1228,62 +1125,62 @@
       <c r="N3" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O3" t="n" s="4">
-        <v>168144.0</v>
-      </c>
-      <c r="P3" t="n" s="5">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q3" t="s" s="0">
+      <c r="O3" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P3" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q3" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R3" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R3" t="s" s="0">
+      <c r="S3" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S3" t="s" s="0">
+      <c r="T3" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T3" t="s" s="0">
+      <c r="U3" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U3" t="s" s="0">
+      <c r="V3" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V3" t="s" s="0">
+      <c r="W3" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W3" t="s" s="0">
+      <c r="X3" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X3" t="s" s="0">
+      <c r="Y3" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y3" t="s" s="0">
+      <c r="Z3" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z3" t="s" s="0">
+      <c r="AA3" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA3" t="s" s="0">
+      <c r="AB3" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB3" t="s" s="0">
+      <c r="AC3" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC3" t="s" s="0">
+      <c r="AD3" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD3" t="s" s="0">
+      <c r="AE3" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE3" t="s" s="0">
+      <c r="AF3" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF3" t="s" s="0">
+      <c r="AG3" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG3" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH3" t="s" s="0">
         <v>100</v>
@@ -1331,7 +1228,7 @@
         <v>82</v>
       </c>
       <c r="AW3" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX3" t="s" s="0">
         <v>113</v>
@@ -1399,7 +1296,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>71</v>
@@ -1440,62 +1337,62 @@
       <c r="N4" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O4" t="n" s="6">
-        <v>168144.0</v>
-      </c>
-      <c r="P4" t="n" s="7">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q4" t="s" s="0">
+      <c r="O4" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P4" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q4" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R4" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R4" t="s" s="0">
+      <c r="S4" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S4" t="s" s="0">
+      <c r="T4" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T4" t="s" s="0">
+      <c r="U4" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U4" t="s" s="0">
+      <c r="V4" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V4" t="s" s="0">
+      <c r="W4" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W4" t="s" s="0">
+      <c r="X4" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X4" t="s" s="0">
+      <c r="Y4" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y4" t="s" s="0">
+      <c r="Z4" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z4" t="s" s="0">
+      <c r="AA4" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA4" t="s" s="0">
+      <c r="AB4" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB4" t="s" s="0">
+      <c r="AC4" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC4" t="s" s="0">
+      <c r="AD4" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD4" t="s" s="0">
+      <c r="AE4" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE4" t="s" s="0">
+      <c r="AF4" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF4" t="s" s="0">
+      <c r="AG4" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG4" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH4" t="s" s="0">
         <v>100</v>
@@ -1543,7 +1440,7 @@
         <v>82</v>
       </c>
       <c r="AW4" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX4" t="s" s="0">
         <v>113</v>
@@ -1611,7 +1508,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>71</v>
@@ -1652,62 +1549,62 @@
       <c r="N5" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O5" t="n" s="8">
-        <v>168144.0</v>
-      </c>
-      <c r="P5" t="n" s="9">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q5" t="s" s="0">
+      <c r="O5" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P5" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q5" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R5" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R5" t="s" s="0">
+      <c r="S5" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S5" t="s" s="0">
+      <c r="T5" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T5" t="s" s="0">
+      <c r="U5" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U5" t="s" s="0">
+      <c r="V5" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V5" t="s" s="0">
+      <c r="W5" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W5" t="s" s="0">
+      <c r="X5" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X5" t="s" s="0">
+      <c r="Y5" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y5" t="s" s="0">
+      <c r="Z5" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z5" t="s" s="0">
+      <c r="AA5" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA5" t="s" s="0">
+      <c r="AB5" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB5" t="s" s="0">
+      <c r="AC5" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC5" t="s" s="0">
+      <c r="AD5" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD5" t="s" s="0">
+      <c r="AE5" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE5" t="s" s="0">
+      <c r="AF5" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF5" t="s" s="0">
+      <c r="AG5" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG5" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH5" t="s" s="0">
         <v>100</v>
@@ -1755,7 +1652,7 @@
         <v>82</v>
       </c>
       <c r="AW5" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX5" t="s" s="0">
         <v>113</v>
@@ -1823,7 +1720,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>71</v>
@@ -1864,62 +1761,62 @@
       <c r="N6" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O6" t="n" s="10">
-        <v>168144.0</v>
-      </c>
-      <c r="P6" t="n" s="11">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q6" t="s" s="0">
+      <c r="O6" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P6" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q6" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R6" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R6" t="s" s="0">
+      <c r="S6" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S6" t="s" s="0">
+      <c r="T6" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T6" t="s" s="0">
+      <c r="U6" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U6" t="s" s="0">
+      <c r="V6" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V6" t="s" s="0">
+      <c r="W6" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W6" t="s" s="0">
+      <c r="X6" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X6" t="s" s="0">
+      <c r="Y6" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y6" t="s" s="0">
+      <c r="Z6" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z6" t="s" s="0">
+      <c r="AA6" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA6" t="s" s="0">
+      <c r="AB6" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB6" t="s" s="0">
+      <c r="AC6" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC6" t="s" s="0">
+      <c r="AD6" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD6" t="s" s="0">
+      <c r="AE6" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE6" t="s" s="0">
+      <c r="AF6" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF6" t="s" s="0">
+      <c r="AG6" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG6" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH6" t="s" s="0">
         <v>100</v>
@@ -1967,7 +1864,7 @@
         <v>82</v>
       </c>
       <c r="AW6" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX6" t="s" s="0">
         <v>113</v>
@@ -2035,7 +1932,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>71</v>
@@ -2076,62 +1973,62 @@
       <c r="N7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O7" t="n" s="12">
-        <v>168144.0</v>
-      </c>
-      <c r="P7" t="n" s="13">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q7" t="s" s="0">
+      <c r="O7" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P7" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q7" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R7" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R7" t="s" s="0">
+      <c r="S7" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S7" t="s" s="0">
+      <c r="T7" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T7" t="s" s="0">
+      <c r="U7" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U7" t="s" s="0">
+      <c r="V7" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V7" t="s" s="0">
+      <c r="W7" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W7" t="s" s="0">
+      <c r="X7" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X7" t="s" s="0">
+      <c r="Y7" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y7" t="s" s="0">
+      <c r="Z7" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z7" t="s" s="0">
+      <c r="AA7" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA7" t="s" s="0">
+      <c r="AB7" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB7" t="s" s="0">
+      <c r="AC7" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC7" t="s" s="0">
+      <c r="AD7" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD7" t="s" s="0">
+      <c r="AE7" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE7" t="s" s="0">
+      <c r="AF7" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF7" t="s" s="0">
+      <c r="AG7" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG7" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH7" t="s" s="0">
         <v>100</v>
@@ -2179,7 +2076,7 @@
         <v>82</v>
       </c>
       <c r="AW7" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX7" t="s" s="0">
         <v>113</v>
@@ -2247,7 +2144,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>71</v>
@@ -2288,62 +2185,62 @@
       <c r="N8" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O8" t="n" s="14">
-        <v>168144.0</v>
-      </c>
-      <c r="P8" t="n" s="15">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q8" t="s" s="0">
+      <c r="O8" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P8" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q8" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R8" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R8" t="s" s="0">
+      <c r="S8" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S8" t="s" s="0">
+      <c r="T8" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T8" t="s" s="0">
+      <c r="U8" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U8" t="s" s="0">
+      <c r="V8" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V8" t="s" s="0">
+      <c r="W8" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W8" t="s" s="0">
+      <c r="X8" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X8" t="s" s="0">
+      <c r="Y8" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y8" t="s" s="0">
+      <c r="Z8" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z8" t="s" s="0">
+      <c r="AA8" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA8" t="s" s="0">
+      <c r="AB8" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB8" t="s" s="0">
+      <c r="AC8" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC8" t="s" s="0">
+      <c r="AD8" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD8" t="s" s="0">
+      <c r="AE8" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE8" t="s" s="0">
+      <c r="AF8" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF8" t="s" s="0">
+      <c r="AG8" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG8" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH8" t="s" s="0">
         <v>100</v>
@@ -2391,7 +2288,7 @@
         <v>82</v>
       </c>
       <c r="AW8" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX8" t="s" s="0">
         <v>113</v>
@@ -2459,7 +2356,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>71</v>
@@ -2500,62 +2397,62 @@
       <c r="N9" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O9" t="n" s="16">
-        <v>168144.0</v>
-      </c>
-      <c r="P9" t="n" s="17">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q9" t="s" s="0">
+      <c r="O9" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P9" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q9" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R9" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R9" t="s" s="0">
+      <c r="S9" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S9" t="s" s="0">
+      <c r="T9" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T9" t="s" s="0">
+      <c r="U9" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U9" t="s" s="0">
+      <c r="V9" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V9" t="s" s="0">
+      <c r="W9" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W9" t="s" s="0">
+      <c r="X9" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X9" t="s" s="0">
+      <c r="Y9" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y9" t="s" s="0">
+      <c r="Z9" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z9" t="s" s="0">
+      <c r="AA9" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA9" t="s" s="0">
+      <c r="AB9" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB9" t="s" s="0">
+      <c r="AC9" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC9" t="s" s="0">
+      <c r="AD9" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD9" t="s" s="0">
+      <c r="AE9" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE9" t="s" s="0">
+      <c r="AF9" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF9" t="s" s="0">
+      <c r="AG9" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG9" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH9" t="s" s="0">
         <v>100</v>
@@ -2603,7 +2500,7 @@
         <v>82</v>
       </c>
       <c r="AW9" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX9" t="s" s="0">
         <v>113</v>
@@ -2671,7 +2568,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>71</v>
@@ -2712,62 +2609,62 @@
       <c r="N10" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O10" t="n" s="18">
-        <v>168144.0</v>
-      </c>
-      <c r="P10" t="n" s="19">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q10" t="s" s="0">
+      <c r="O10" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P10" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q10" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R10" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R10" t="s" s="0">
+      <c r="S10" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S10" t="s" s="0">
+      <c r="T10" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T10" t="s" s="0">
+      <c r="U10" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U10" t="s" s="0">
+      <c r="V10" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V10" t="s" s="0">
+      <c r="W10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W10" t="s" s="0">
+      <c r="X10" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X10" t="s" s="0">
+      <c r="Y10" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y10" t="s" s="0">
+      <c r="Z10" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z10" t="s" s="0">
+      <c r="AA10" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA10" t="s" s="0">
+      <c r="AB10" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB10" t="s" s="0">
+      <c r="AC10" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC10" t="s" s="0">
+      <c r="AD10" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD10" t="s" s="0">
+      <c r="AE10" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE10" t="s" s="0">
+      <c r="AF10" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF10" t="s" s="0">
+      <c r="AG10" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG10" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH10" t="s" s="0">
         <v>100</v>
@@ -2815,7 +2712,7 @@
         <v>82</v>
       </c>
       <c r="AW10" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX10" t="s" s="0">
         <v>113</v>
@@ -2883,7 +2780,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>71</v>
@@ -2924,62 +2821,62 @@
       <c r="N11" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O11" t="n" s="20">
-        <v>168144.0</v>
-      </c>
-      <c r="P11" t="n" s="21">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q11" t="s" s="0">
+      <c r="O11" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P11" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q11" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R11" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R11" t="s" s="0">
+      <c r="S11" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S11" t="s" s="0">
+      <c r="T11" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T11" t="s" s="0">
+      <c r="U11" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U11" t="s" s="0">
+      <c r="V11" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V11" t="s" s="0">
+      <c r="W11" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W11" t="s" s="0">
+      <c r="X11" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X11" t="s" s="0">
+      <c r="Y11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y11" t="s" s="0">
+      <c r="Z11" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z11" t="s" s="0">
+      <c r="AA11" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA11" t="s" s="0">
+      <c r="AB11" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB11" t="s" s="0">
+      <c r="AC11" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC11" t="s" s="0">
+      <c r="AD11" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD11" t="s" s="0">
+      <c r="AE11" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE11" t="s" s="0">
+      <c r="AF11" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF11" t="s" s="0">
+      <c r="AG11" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG11" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH11" t="s" s="0">
         <v>100</v>
@@ -3027,7 +2924,7 @@
         <v>82</v>
       </c>
       <c r="AW11" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX11" t="s" s="0">
         <v>113</v>
@@ -3095,7 +2992,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>71</v>
@@ -3136,62 +3033,62 @@
       <c r="N12" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O12" t="n" s="22">
-        <v>168144.0</v>
-      </c>
-      <c r="P12" t="n" s="23">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q12" t="s" s="0">
+      <c r="O12" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P12" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q12" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R12" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R12" t="s" s="0">
+      <c r="S12" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S12" t="s" s="0">
+      <c r="T12" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T12" t="s" s="0">
+      <c r="U12" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U12" t="s" s="0">
+      <c r="V12" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V12" t="s" s="0">
+      <c r="W12" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W12" t="s" s="0">
+      <c r="X12" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X12" t="s" s="0">
+      <c r="Y12" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y12" t="s" s="0">
+      <c r="Z12" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z12" t="s" s="0">
+      <c r="AA12" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA12" t="s" s="0">
+      <c r="AB12" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB12" t="s" s="0">
+      <c r="AC12" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC12" t="s" s="0">
+      <c r="AD12" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD12" t="s" s="0">
+      <c r="AE12" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE12" t="s" s="0">
+      <c r="AF12" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF12" t="s" s="0">
+      <c r="AG12" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG12" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH12" t="s" s="0">
         <v>100</v>
@@ -3239,7 +3136,7 @@
         <v>82</v>
       </c>
       <c r="AW12" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX12" t="s" s="0">
         <v>113</v>
@@ -3307,7 +3204,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>71</v>
@@ -3348,62 +3245,62 @@
       <c r="N13" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O13" t="n" s="24">
-        <v>168144.0</v>
-      </c>
-      <c r="P13" t="n" s="25">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q13" t="s" s="0">
+      <c r="O13" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P13" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q13" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R13" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R13" t="s" s="0">
+      <c r="S13" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S13" t="s" s="0">
+      <c r="T13" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T13" t="s" s="0">
+      <c r="U13" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U13" t="s" s="0">
+      <c r="V13" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V13" t="s" s="0">
+      <c r="W13" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W13" t="s" s="0">
+      <c r="X13" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X13" t="s" s="0">
+      <c r="Y13" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y13" t="s" s="0">
+      <c r="Z13" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z13" t="s" s="0">
+      <c r="AA13" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA13" t="s" s="0">
+      <c r="AB13" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB13" t="s" s="0">
+      <c r="AC13" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC13" t="s" s="0">
+      <c r="AD13" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD13" t="s" s="0">
+      <c r="AE13" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE13" t="s" s="0">
+      <c r="AF13" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF13" t="s" s="0">
+      <c r="AG13" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG13" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH13" t="s" s="0">
         <v>100</v>
@@ -3451,7 +3348,7 @@
         <v>82</v>
       </c>
       <c r="AW13" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX13" t="s" s="0">
         <v>113</v>
@@ -3519,7 +3416,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>71</v>
@@ -3560,62 +3457,62 @@
       <c r="N14" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O14" t="n" s="26">
-        <v>168144.0</v>
-      </c>
-      <c r="P14" t="n" s="27">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q14" t="s" s="0">
+      <c r="O14" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P14" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q14" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R14" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R14" t="s" s="0">
+      <c r="S14" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S14" t="s" s="0">
+      <c r="T14" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T14" t="s" s="0">
+      <c r="U14" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U14" t="s" s="0">
+      <c r="V14" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V14" t="s" s="0">
+      <c r="W14" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W14" t="s" s="0">
+      <c r="X14" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X14" t="s" s="0">
+      <c r="Y14" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y14" t="s" s="0">
+      <c r="Z14" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z14" t="s" s="0">
+      <c r="AA14" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA14" t="s" s="0">
+      <c r="AB14" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB14" t="s" s="0">
+      <c r="AC14" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC14" t="s" s="0">
+      <c r="AD14" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD14" t="s" s="0">
+      <c r="AE14" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE14" t="s" s="0">
+      <c r="AF14" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF14" t="s" s="0">
+      <c r="AG14" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG14" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH14" t="s" s="0">
         <v>100</v>
@@ -3663,7 +3560,7 @@
         <v>82</v>
       </c>
       <c r="AW14" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX14" t="s" s="0">
         <v>113</v>
@@ -3731,7 +3628,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>71</v>
@@ -3764,7 +3661,7 @@
         <v>80</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="0">
         <v>82</v>
@@ -3772,62 +3669,62 @@
       <c r="N15" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O15" t="n" s="28">
-        <v>168144.0</v>
-      </c>
-      <c r="P15" t="n" s="29">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q15" t="s" s="0">
+      <c r="O15" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P15" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q15" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R15" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R15" t="s" s="0">
+      <c r="S15" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S15" t="s" s="0">
+      <c r="T15" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T15" t="s" s="0">
+      <c r="U15" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U15" t="s" s="0">
+      <c r="V15" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V15" t="s" s="0">
+      <c r="W15" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W15" t="s" s="0">
+      <c r="X15" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X15" t="s" s="0">
+      <c r="Y15" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y15" t="s" s="0">
+      <c r="Z15" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z15" t="s" s="0">
+      <c r="AA15" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA15" t="s" s="0">
+      <c r="AB15" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB15" t="s" s="0">
+      <c r="AC15" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC15" t="s" s="0">
+      <c r="AD15" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD15" t="s" s="0">
+      <c r="AE15" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE15" t="s" s="0">
+      <c r="AF15" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF15" t="s" s="0">
+      <c r="AG15" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG15" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH15" t="s" s="0">
         <v>100</v>
@@ -3857,7 +3754,7 @@
         <v>108</v>
       </c>
       <c r="AQ15" t="s" s="0">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="AR15" t="s" s="0">
         <v>110</v>
@@ -3875,7 +3772,7 @@
         <v>82</v>
       </c>
       <c r="AW15" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX15" t="s" s="0">
         <v>113</v>
@@ -3943,7 +3840,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>71</v>
@@ -3984,62 +3881,62 @@
       <c r="N16" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O16" t="n" s="30">
-        <v>168144.0</v>
-      </c>
-      <c r="P16" t="n" s="31">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q16" t="s" s="0">
+      <c r="O16" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P16" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q16" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R16" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R16" t="s" s="0">
+      <c r="S16" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S16" t="s" s="0">
+      <c r="T16" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T16" t="s" s="0">
+      <c r="U16" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U16" t="s" s="0">
+      <c r="V16" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V16" t="s" s="0">
+      <c r="W16" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W16" t="s" s="0">
+      <c r="X16" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X16" t="s" s="0">
+      <c r="Y16" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y16" t="s" s="0">
+      <c r="Z16" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z16" t="s" s="0">
+      <c r="AA16" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA16" t="s" s="0">
+      <c r="AB16" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB16" t="s" s="0">
+      <c r="AC16" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC16" t="s" s="0">
+      <c r="AD16" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD16" t="s" s="0">
+      <c r="AE16" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE16" t="s" s="0">
+      <c r="AF16" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF16" t="s" s="0">
+      <c r="AG16" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG16" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH16" t="s" s="0">
         <v>100</v>
@@ -4087,7 +3984,7 @@
         <v>82</v>
       </c>
       <c r="AW16" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX16" t="s" s="0">
         <v>113</v>
@@ -4155,7 +4052,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>71</v>
@@ -4196,62 +4093,62 @@
       <c r="N17" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O17" t="n" s="32">
-        <v>168144.0</v>
-      </c>
-      <c r="P17" t="n" s="33">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q17" t="s" s="0">
+      <c r="O17" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P17" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q17" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R17" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R17" t="s" s="0">
+      <c r="S17" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S17" t="s" s="0">
+      <c r="T17" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T17" t="s" s="0">
+      <c r="U17" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U17" t="s" s="0">
+      <c r="V17" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V17" t="s" s="0">
+      <c r="W17" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W17" t="s" s="0">
+      <c r="X17" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X17" t="s" s="0">
+      <c r="Y17" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y17" t="s" s="0">
+      <c r="Z17" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z17" t="s" s="0">
+      <c r="AA17" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA17" t="s" s="0">
+      <c r="AB17" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB17" t="s" s="0">
+      <c r="AC17" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC17" t="s" s="0">
+      <c r="AD17" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD17" t="s" s="0">
+      <c r="AE17" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE17" t="s" s="0">
+      <c r="AF17" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF17" t="s" s="0">
+      <c r="AG17" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG17" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH17" t="s" s="0">
         <v>100</v>
@@ -4299,7 +4196,7 @@
         <v>82</v>
       </c>
       <c r="AW17" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX17" t="s" s="0">
         <v>113</v>
@@ -4367,7 +4264,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>71</v>
@@ -4408,62 +4305,62 @@
       <c r="N18" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O18" t="n" s="34">
-        <v>168144.0</v>
-      </c>
-      <c r="P18" t="n" s="35">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q18" t="s" s="0">
+      <c r="O18" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P18" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q18" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R18" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R18" t="s" s="0">
+      <c r="S18" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S18" t="s" s="0">
+      <c r="T18" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T18" t="s" s="0">
+      <c r="U18" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U18" t="s" s="0">
+      <c r="V18" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V18" t="s" s="0">
+      <c r="W18" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W18" t="s" s="0">
+      <c r="X18" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X18" t="s" s="0">
+      <c r="Y18" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y18" t="s" s="0">
+      <c r="Z18" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z18" t="s" s="0">
+      <c r="AA18" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA18" t="s" s="0">
+      <c r="AB18" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB18" t="s" s="0">
+      <c r="AC18" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC18" t="s" s="0">
+      <c r="AD18" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD18" t="s" s="0">
+      <c r="AE18" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE18" t="s" s="0">
+      <c r="AF18" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF18" t="s" s="0">
+      <c r="AG18" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG18" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH18" t="s" s="0">
         <v>100</v>
@@ -4511,7 +4408,7 @@
         <v>82</v>
       </c>
       <c r="AW18" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX18" t="s" s="0">
         <v>113</v>
@@ -4579,7 +4476,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>71</v>
@@ -4620,62 +4517,62 @@
       <c r="N19" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O19" t="n" s="36">
-        <v>168144.0</v>
-      </c>
-      <c r="P19" t="n" s="37">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q19" t="s" s="0">
+      <c r="O19" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P19" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q19" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R19" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R19" t="s" s="0">
+      <c r="S19" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S19" t="s" s="0">
+      <c r="T19" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T19" t="s" s="0">
+      <c r="U19" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U19" t="s" s="0">
+      <c r="V19" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V19" t="s" s="0">
+      <c r="W19" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W19" t="s" s="0">
+      <c r="X19" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X19" t="s" s="0">
+      <c r="Y19" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y19" t="s" s="0">
+      <c r="Z19" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z19" t="s" s="0">
+      <c r="AA19" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA19" t="s" s="0">
+      <c r="AB19" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB19" t="s" s="0">
+      <c r="AC19" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC19" t="s" s="0">
+      <c r="AD19" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD19" t="s" s="0">
+      <c r="AE19" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE19" t="s" s="0">
+      <c r="AF19" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF19" t="s" s="0">
+      <c r="AG19" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG19" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH19" t="s" s="0">
         <v>100</v>
@@ -4723,7 +4620,7 @@
         <v>82</v>
       </c>
       <c r="AW19" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX19" t="s" s="0">
         <v>113</v>
@@ -4791,7 +4688,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>71</v>
@@ -4832,62 +4729,62 @@
       <c r="N20" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O20" t="n" s="38">
-        <v>168144.0</v>
-      </c>
-      <c r="P20" t="n" s="39">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q20" t="s" s="0">
+      <c r="O20" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P20" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q20" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R20" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R20" t="s" s="0">
+      <c r="S20" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S20" t="s" s="0">
+      <c r="T20" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T20" t="s" s="0">
+      <c r="U20" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U20" t="s" s="0">
+      <c r="V20" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V20" t="s" s="0">
+      <c r="W20" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W20" t="s" s="0">
+      <c r="X20" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X20" t="s" s="0">
+      <c r="Y20" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y20" t="s" s="0">
+      <c r="Z20" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z20" t="s" s="0">
+      <c r="AA20" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA20" t="s" s="0">
+      <c r="AB20" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB20" t="s" s="0">
+      <c r="AC20" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC20" t="s" s="0">
+      <c r="AD20" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD20" t="s" s="0">
+      <c r="AE20" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE20" t="s" s="0">
+      <c r="AF20" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF20" t="s" s="0">
+      <c r="AG20" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG20" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH20" t="s" s="0">
         <v>100</v>
@@ -4935,7 +4832,7 @@
         <v>82</v>
       </c>
       <c r="AW20" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX20" t="s" s="0">
         <v>113</v>
@@ -5003,7 +4900,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>71</v>
@@ -5044,62 +4941,62 @@
       <c r="N21" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O21" t="n" s="40">
-        <v>168144.0</v>
-      </c>
-      <c r="P21" t="n" s="41">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q21" t="s" s="0">
+      <c r="O21" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P21" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q21" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R21" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R21" t="s" s="0">
+      <c r="S21" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S21" t="s" s="0">
+      <c r="T21" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T21" t="s" s="0">
+      <c r="U21" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U21" t="s" s="0">
+      <c r="V21" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V21" t="s" s="0">
+      <c r="W21" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W21" t="s" s="0">
+      <c r="X21" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X21" t="s" s="0">
+      <c r="Y21" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y21" t="s" s="0">
+      <c r="Z21" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z21" t="s" s="0">
+      <c r="AA21" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA21" t="s" s="0">
+      <c r="AB21" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB21" t="s" s="0">
+      <c r="AC21" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC21" t="s" s="0">
+      <c r="AD21" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD21" t="s" s="0">
+      <c r="AE21" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE21" t="s" s="0">
+      <c r="AF21" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF21" t="s" s="0">
+      <c r="AG21" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG21" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH21" t="s" s="0">
         <v>100</v>
@@ -5147,7 +5044,7 @@
         <v>82</v>
       </c>
       <c r="AW21" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX21" t="s" s="0">
         <v>113</v>
@@ -5215,7 +5112,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>71</v>
@@ -5256,62 +5153,62 @@
       <c r="N22" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O22" t="n" s="42">
-        <v>168144.0</v>
-      </c>
-      <c r="P22" t="n" s="43">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q22" t="s" s="0">
+      <c r="O22" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P22" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q22" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R22" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R22" t="s" s="0">
+      <c r="S22" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S22" t="s" s="0">
+      <c r="T22" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T22" t="s" s="0">
+      <c r="U22" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U22" t="s" s="0">
+      <c r="V22" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V22" t="s" s="0">
+      <c r="W22" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W22" t="s" s="0">
+      <c r="X22" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X22" t="s" s="0">
+      <c r="Y22" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y22" t="s" s="0">
+      <c r="Z22" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z22" t="s" s="0">
+      <c r="AA22" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA22" t="s" s="0">
+      <c r="AB22" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB22" t="s" s="0">
+      <c r="AC22" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC22" t="s" s="0">
+      <c r="AD22" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD22" t="s" s="0">
+      <c r="AE22" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE22" t="s" s="0">
+      <c r="AF22" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF22" t="s" s="0">
+      <c r="AG22" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG22" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH22" t="s" s="0">
         <v>100</v>
@@ -5359,7 +5256,7 @@
         <v>82</v>
       </c>
       <c r="AW22" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX22" t="s" s="0">
         <v>113</v>
@@ -5427,7 +5324,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>71</v>
@@ -5468,62 +5365,62 @@
       <c r="N23" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O23" t="n" s="44">
-        <v>168144.0</v>
-      </c>
-      <c r="P23" t="n" s="45">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q23" t="s" s="0">
+      <c r="O23" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P23" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q23" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R23" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R23" t="s" s="0">
+      <c r="S23" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S23" t="s" s="0">
+      <c r="T23" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T23" t="s" s="0">
+      <c r="U23" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U23" t="s" s="0">
+      <c r="V23" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V23" t="s" s="0">
+      <c r="W23" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W23" t="s" s="0">
+      <c r="X23" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X23" t="s" s="0">
+      <c r="Y23" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y23" t="s" s="0">
+      <c r="Z23" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z23" t="s" s="0">
+      <c r="AA23" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA23" t="s" s="0">
+      <c r="AB23" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB23" t="s" s="0">
+      <c r="AC23" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC23" t="s" s="0">
+      <c r="AD23" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD23" t="s" s="0">
+      <c r="AE23" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE23" t="s" s="0">
+      <c r="AF23" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF23" t="s" s="0">
+      <c r="AG23" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG23" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH23" t="s" s="0">
         <v>100</v>
@@ -5571,7 +5468,7 @@
         <v>82</v>
       </c>
       <c r="AW23" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX23" t="s" s="0">
         <v>113</v>
@@ -5639,7 +5536,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>71</v>
@@ -5680,62 +5577,62 @@
       <c r="N24" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O24" t="n" s="46">
-        <v>168144.0</v>
-      </c>
-      <c r="P24" t="n" s="47">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q24" t="s" s="0">
+      <c r="O24" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P24" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q24" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R24" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R24" t="s" s="0">
+      <c r="S24" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S24" t="s" s="0">
+      <c r="T24" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T24" t="s" s="0">
+      <c r="U24" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U24" t="s" s="0">
+      <c r="V24" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V24" t="s" s="0">
+      <c r="W24" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W24" t="s" s="0">
+      <c r="X24" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X24" t="s" s="0">
+      <c r="Y24" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y24" t="s" s="0">
+      <c r="Z24" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z24" t="s" s="0">
+      <c r="AA24" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA24" t="s" s="0">
+      <c r="AB24" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB24" t="s" s="0">
+      <c r="AC24" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC24" t="s" s="0">
+      <c r="AD24" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD24" t="s" s="0">
+      <c r="AE24" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE24" t="s" s="0">
+      <c r="AF24" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF24" t="s" s="0">
+      <c r="AG24" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG24" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH24" t="s" s="0">
         <v>100</v>
@@ -5783,7 +5680,7 @@
         <v>82</v>
       </c>
       <c r="AW24" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX24" t="s" s="0">
         <v>113</v>
@@ -5851,7 +5748,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>71</v>
@@ -5892,62 +5789,62 @@
       <c r="N25" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O25" t="n" s="48">
-        <v>168144.0</v>
-      </c>
-      <c r="P25" t="n" s="49">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q25" t="s" s="0">
+      <c r="O25" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P25" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q25" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R25" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R25" t="s" s="0">
+      <c r="S25" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S25" t="s" s="0">
+      <c r="T25" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T25" t="s" s="0">
+      <c r="U25" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U25" t="s" s="0">
+      <c r="V25" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V25" t="s" s="0">
+      <c r="W25" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W25" t="s" s="0">
+      <c r="X25" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X25" t="s" s="0">
+      <c r="Y25" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y25" t="s" s="0">
+      <c r="Z25" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z25" t="s" s="0">
+      <c r="AA25" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA25" t="s" s="0">
+      <c r="AB25" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB25" t="s" s="0">
+      <c r="AC25" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC25" t="s" s="0">
+      <c r="AD25" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD25" t="s" s="0">
+      <c r="AE25" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE25" t="s" s="0">
+      <c r="AF25" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF25" t="s" s="0">
+      <c r="AG25" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG25" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH25" t="s" s="0">
         <v>100</v>
@@ -5995,7 +5892,7 @@
         <v>82</v>
       </c>
       <c r="AW25" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX25" t="s" s="0">
         <v>113</v>
@@ -6063,7 +5960,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>71</v>
@@ -6104,62 +6001,62 @@
       <c r="N26" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O26" t="n" s="50">
-        <v>168144.0</v>
-      </c>
-      <c r="P26" t="n" s="51">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q26" t="s" s="0">
+      <c r="O26" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P26" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q26" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R26" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R26" t="s" s="0">
+      <c r="S26" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S26" t="s" s="0">
+      <c r="T26" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T26" t="s" s="0">
+      <c r="U26" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U26" t="s" s="0">
+      <c r="V26" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V26" t="s" s="0">
+      <c r="W26" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W26" t="s" s="0">
+      <c r="X26" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X26" t="s" s="0">
+      <c r="Y26" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y26" t="s" s="0">
+      <c r="Z26" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z26" t="s" s="0">
+      <c r="AA26" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA26" t="s" s="0">
+      <c r="AB26" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB26" t="s" s="0">
+      <c r="AC26" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC26" t="s" s="0">
+      <c r="AD26" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD26" t="s" s="0">
+      <c r="AE26" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE26" t="s" s="0">
+      <c r="AF26" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF26" t="s" s="0">
+      <c r="AG26" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG26" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH26" t="s" s="0">
         <v>100</v>
@@ -6207,7 +6104,7 @@
         <v>82</v>
       </c>
       <c r="AW26" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX26" t="s" s="0">
         <v>113</v>
@@ -6275,7 +6172,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>71</v>
@@ -6316,62 +6213,62 @@
       <c r="N27" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O27" t="n" s="52">
-        <v>168144.0</v>
-      </c>
-      <c r="P27" t="n" s="53">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q27" t="s" s="0">
+      <c r="O27" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P27" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q27" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R27" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R27" t="s" s="0">
+      <c r="S27" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S27" t="s" s="0">
+      <c r="T27" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T27" t="s" s="0">
+      <c r="U27" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U27" t="s" s="0">
+      <c r="V27" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V27" t="s" s="0">
+      <c r="W27" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W27" t="s" s="0">
+      <c r="X27" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X27" t="s" s="0">
+      <c r="Y27" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y27" t="s" s="0">
+      <c r="Z27" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z27" t="s" s="0">
+      <c r="AA27" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA27" t="s" s="0">
+      <c r="AB27" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB27" t="s" s="0">
+      <c r="AC27" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC27" t="s" s="0">
+      <c r="AD27" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD27" t="s" s="0">
+      <c r="AE27" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE27" t="s" s="0">
+      <c r="AF27" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF27" t="s" s="0">
+      <c r="AG27" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG27" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH27" t="s" s="0">
         <v>100</v>
@@ -6419,7 +6316,7 @@
         <v>82</v>
       </c>
       <c r="AW27" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX27" t="s" s="0">
         <v>113</v>
@@ -6487,7 +6384,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>71</v>
@@ -6528,62 +6425,62 @@
       <c r="N28" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O28" t="n" s="54">
-        <v>168144.0</v>
-      </c>
-      <c r="P28" t="n" s="55">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q28" t="s" s="0">
+      <c r="O28" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P28" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q28" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R28" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R28" t="s" s="0">
+      <c r="S28" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S28" t="s" s="0">
+      <c r="T28" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T28" t="s" s="0">
+      <c r="U28" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U28" t="s" s="0">
+      <c r="V28" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V28" t="s" s="0">
+      <c r="W28" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W28" t="s" s="0">
+      <c r="X28" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X28" t="s" s="0">
+      <c r="Y28" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y28" t="s" s="0">
+      <c r="Z28" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z28" t="s" s="0">
+      <c r="AA28" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA28" t="s" s="0">
+      <c r="AB28" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB28" t="s" s="0">
+      <c r="AC28" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC28" t="s" s="0">
+      <c r="AD28" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD28" t="s" s="0">
+      <c r="AE28" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE28" t="s" s="0">
+      <c r="AF28" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF28" t="s" s="0">
+      <c r="AG28" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG28" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH28" t="s" s="0">
         <v>100</v>
@@ -6631,7 +6528,7 @@
         <v>82</v>
       </c>
       <c r="AW28" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX28" t="s" s="0">
         <v>113</v>
@@ -6699,7 +6596,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>71</v>
@@ -6740,62 +6637,62 @@
       <c r="N29" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O29" t="n" s="56">
-        <v>168144.0</v>
-      </c>
-      <c r="P29" t="n" s="57">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q29" t="s" s="0">
+      <c r="O29" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P29" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q29" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R29" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R29" t="s" s="0">
+      <c r="S29" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S29" t="s" s="0">
+      <c r="T29" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T29" t="s" s="0">
+      <c r="U29" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U29" t="s" s="0">
+      <c r="V29" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V29" t="s" s="0">
+      <c r="W29" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W29" t="s" s="0">
+      <c r="X29" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X29" t="s" s="0">
+      <c r="Y29" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y29" t="s" s="0">
+      <c r="Z29" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z29" t="s" s="0">
+      <c r="AA29" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA29" t="s" s="0">
+      <c r="AB29" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB29" t="s" s="0">
+      <c r="AC29" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC29" t="s" s="0">
+      <c r="AD29" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD29" t="s" s="0">
+      <c r="AE29" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE29" t="s" s="0">
+      <c r="AF29" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF29" t="s" s="0">
+      <c r="AG29" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG29" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH29" t="s" s="0">
         <v>100</v>
@@ -6843,7 +6740,7 @@
         <v>82</v>
       </c>
       <c r="AW29" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX29" t="s" s="0">
         <v>113</v>
@@ -6911,7 +6808,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>71</v>
@@ -6952,62 +6849,62 @@
       <c r="N30" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O30" t="n" s="58">
-        <v>168144.0</v>
-      </c>
-      <c r="P30" t="n" s="59">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q30" t="s" s="0">
+      <c r="O30" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P30" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q30" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R30" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R30" t="s" s="0">
+      <c r="S30" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S30" t="s" s="0">
+      <c r="T30" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T30" t="s" s="0">
+      <c r="U30" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U30" t="s" s="0">
+      <c r="V30" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V30" t="s" s="0">
+      <c r="W30" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W30" t="s" s="0">
+      <c r="X30" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X30" t="s" s="0">
+      <c r="Y30" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y30" t="s" s="0">
+      <c r="Z30" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z30" t="s" s="0">
+      <c r="AA30" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA30" t="s" s="0">
+      <c r="AB30" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB30" t="s" s="0">
+      <c r="AC30" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC30" t="s" s="0">
+      <c r="AD30" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD30" t="s" s="0">
+      <c r="AE30" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE30" t="s" s="0">
+      <c r="AF30" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF30" t="s" s="0">
+      <c r="AG30" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG30" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH30" t="s" s="0">
         <v>100</v>
@@ -7055,7 +6952,7 @@
         <v>82</v>
       </c>
       <c r="AW30" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX30" t="s" s="0">
         <v>113</v>
@@ -7123,7 +7020,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B31" t="s" s="0">
         <v>71</v>
@@ -7164,62 +7061,62 @@
       <c r="N31" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O31" t="n" s="60">
-        <v>168144.0</v>
-      </c>
-      <c r="P31" t="n" s="61">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q31" t="s" s="0">
+      <c r="O31" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P31" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q31" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R31" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R31" t="s" s="0">
+      <c r="S31" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S31" t="s" s="0">
+      <c r="T31" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T31" t="s" s="0">
+      <c r="U31" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U31" t="s" s="0">
+      <c r="V31" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V31" t="s" s="0">
+      <c r="W31" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W31" t="s" s="0">
+      <c r="X31" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X31" t="s" s="0">
+      <c r="Y31" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y31" t="s" s="0">
+      <c r="Z31" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z31" t="s" s="0">
+      <c r="AA31" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA31" t="s" s="0">
+      <c r="AB31" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB31" t="s" s="0">
+      <c r="AC31" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC31" t="s" s="0">
+      <c r="AD31" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD31" t="s" s="0">
+      <c r="AE31" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE31" t="s" s="0">
+      <c r="AF31" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF31" t="s" s="0">
+      <c r="AG31" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG31" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH31" t="s" s="0">
         <v>100</v>
@@ -7267,7 +7164,7 @@
         <v>82</v>
       </c>
       <c r="AW31" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX31" t="s" s="0">
         <v>113</v>
@@ -7335,7 +7232,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>71</v>
@@ -7376,62 +7273,62 @@
       <c r="N32" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O32" t="n" s="62">
-        <v>168144.0</v>
-      </c>
-      <c r="P32" t="n" s="63">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q32" t="s" s="0">
+      <c r="O32" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P32" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q32" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R32" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R32" t="s" s="0">
+      <c r="S32" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S32" t="s" s="0">
+      <c r="T32" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T32" t="s" s="0">
+      <c r="U32" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U32" t="s" s="0">
+      <c r="V32" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V32" t="s" s="0">
+      <c r="W32" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W32" t="s" s="0">
+      <c r="X32" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X32" t="s" s="0">
+      <c r="Y32" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y32" t="s" s="0">
+      <c r="Z32" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z32" t="s" s="0">
+      <c r="AA32" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA32" t="s" s="0">
+      <c r="AB32" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB32" t="s" s="0">
+      <c r="AC32" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC32" t="s" s="0">
+      <c r="AD32" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD32" t="s" s="0">
+      <c r="AE32" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE32" t="s" s="0">
+      <c r="AF32" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF32" t="s" s="0">
+      <c r="AG32" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG32" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH32" t="s" s="0">
         <v>100</v>
@@ -7479,7 +7376,7 @@
         <v>82</v>
       </c>
       <c r="AW32" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX32" t="s" s="0">
         <v>113</v>
@@ -7547,7 +7444,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>71</v>
@@ -7588,62 +7485,62 @@
       <c r="N33" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O33" t="n" s="64">
-        <v>168144.0</v>
-      </c>
-      <c r="P33" t="n" s="65">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q33" t="s" s="0">
+      <c r="O33" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P33" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q33" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R33" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R33" t="s" s="0">
+      <c r="S33" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S33" t="s" s="0">
+      <c r="T33" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T33" t="s" s="0">
+      <c r="U33" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U33" t="s" s="0">
+      <c r="V33" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V33" t="s" s="0">
+      <c r="W33" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W33" t="s" s="0">
+      <c r="X33" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X33" t="s" s="0">
+      <c r="Y33" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y33" t="s" s="0">
+      <c r="Z33" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z33" t="s" s="0">
+      <c r="AA33" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA33" t="s" s="0">
+      <c r="AB33" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB33" t="s" s="0">
+      <c r="AC33" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC33" t="s" s="0">
+      <c r="AD33" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD33" t="s" s="0">
+      <c r="AE33" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE33" t="s" s="0">
+      <c r="AF33" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF33" t="s" s="0">
+      <c r="AG33" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG33" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH33" t="s" s="0">
         <v>100</v>
@@ -7691,7 +7588,7 @@
         <v>82</v>
       </c>
       <c r="AW33" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX33" t="s" s="0">
         <v>113</v>
@@ -7759,7 +7656,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>71</v>
@@ -7800,62 +7697,62 @@
       <c r="N34" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O34" t="n" s="66">
-        <v>168144.0</v>
-      </c>
-      <c r="P34" t="n" s="67">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q34" t="s" s="0">
+      <c r="O34" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P34" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q34" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R34" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R34" t="s" s="0">
+      <c r="S34" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S34" t="s" s="0">
+      <c r="T34" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T34" t="s" s="0">
+      <c r="U34" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U34" t="s" s="0">
+      <c r="V34" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V34" t="s" s="0">
+      <c r="W34" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W34" t="s" s="0">
+      <c r="X34" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X34" t="s" s="0">
+      <c r="Y34" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y34" t="s" s="0">
+      <c r="Z34" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z34" t="s" s="0">
+      <c r="AA34" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA34" t="s" s="0">
+      <c r="AB34" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB34" t="s" s="0">
+      <c r="AC34" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC34" t="s" s="0">
+      <c r="AD34" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD34" t="s" s="0">
+      <c r="AE34" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE34" t="s" s="0">
+      <c r="AF34" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF34" t="s" s="0">
+      <c r="AG34" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG34" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH34" t="s" s="0">
         <v>100</v>
@@ -7903,7 +7800,7 @@
         <v>82</v>
       </c>
       <c r="AW34" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX34" t="s" s="0">
         <v>113</v>
@@ -7971,7 +7868,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>71</v>
@@ -8012,62 +7909,62 @@
       <c r="N35" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O35" t="n" s="68">
-        <v>168144.0</v>
-      </c>
-      <c r="P35" t="n" s="69">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q35" t="s" s="0">
+      <c r="O35" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P35" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q35" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R35" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R35" t="s" s="0">
+      <c r="S35" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S35" t="s" s="0">
+      <c r="T35" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T35" t="s" s="0">
+      <c r="U35" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U35" t="s" s="0">
+      <c r="V35" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V35" t="s" s="0">
+      <c r="W35" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W35" t="s" s="0">
+      <c r="X35" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X35" t="s" s="0">
+      <c r="Y35" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y35" t="s" s="0">
+      <c r="Z35" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z35" t="s" s="0">
+      <c r="AA35" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA35" t="s" s="0">
+      <c r="AB35" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB35" t="s" s="0">
+      <c r="AC35" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC35" t="s" s="0">
+      <c r="AD35" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD35" t="s" s="0">
+      <c r="AE35" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE35" t="s" s="0">
+      <c r="AF35" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF35" t="s" s="0">
+      <c r="AG35" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG35" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH35" t="s" s="0">
         <v>100</v>
@@ -8115,7 +8012,7 @@
         <v>82</v>
       </c>
       <c r="AW35" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX35" t="s" s="0">
         <v>113</v>
@@ -8183,7 +8080,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>71</v>
@@ -8224,62 +8121,62 @@
       <c r="N36" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O36" t="n" s="70">
-        <v>168144.0</v>
-      </c>
-      <c r="P36" t="n" s="71">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q36" t="s" s="0">
+      <c r="O36" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P36" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q36" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R36" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R36" t="s" s="0">
+      <c r="S36" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S36" t="s" s="0">
+      <c r="T36" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T36" t="s" s="0">
+      <c r="U36" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U36" t="s" s="0">
+      <c r="V36" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V36" t="s" s="0">
+      <c r="W36" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W36" t="s" s="0">
+      <c r="X36" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X36" t="s" s="0">
+      <c r="Y36" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y36" t="s" s="0">
+      <c r="Z36" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z36" t="s" s="0">
+      <c r="AA36" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA36" t="s" s="0">
+      <c r="AB36" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB36" t="s" s="0">
+      <c r="AC36" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC36" t="s" s="0">
+      <c r="AD36" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD36" t="s" s="0">
+      <c r="AE36" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE36" t="s" s="0">
+      <c r="AF36" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF36" t="s" s="0">
+      <c r="AG36" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG36" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH36" t="s" s="0">
         <v>100</v>
@@ -8327,7 +8224,7 @@
         <v>82</v>
       </c>
       <c r="AW36" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX36" t="s" s="0">
         <v>113</v>
@@ -8395,7 +8292,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>71</v>
@@ -8428,7 +8325,7 @@
         <v>80</v>
       </c>
       <c r="L37" t="s" s="0">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="M37" t="s" s="0">
         <v>82</v>
@@ -8436,62 +8333,62 @@
       <c r="N37" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O37" t="n" s="72">
-        <v>168144.0</v>
-      </c>
-      <c r="P37" t="n" s="73">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q37" t="s" s="0">
+      <c r="O37" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P37" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q37" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R37" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R37" t="s" s="0">
+      <c r="S37" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S37" t="s" s="0">
+      <c r="T37" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T37" t="s" s="0">
+      <c r="U37" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U37" t="s" s="0">
+      <c r="V37" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V37" t="s" s="0">
+      <c r="W37" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W37" t="s" s="0">
+      <c r="X37" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X37" t="s" s="0">
+      <c r="Y37" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y37" t="s" s="0">
+      <c r="Z37" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z37" t="s" s="0">
+      <c r="AA37" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA37" t="s" s="0">
+      <c r="AB37" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB37" t="s" s="0">
+      <c r="AC37" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC37" t="s" s="0">
+      <c r="AD37" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD37" t="s" s="0">
+      <c r="AE37" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE37" t="s" s="0">
+      <c r="AF37" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF37" t="s" s="0">
+      <c r="AG37" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG37" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH37" t="s" s="0">
         <v>100</v>
@@ -8521,7 +8418,7 @@
         <v>108</v>
       </c>
       <c r="AQ37" t="s" s="0">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="AR37" t="s" s="0">
         <v>110</v>
@@ -8539,7 +8436,7 @@
         <v>82</v>
       </c>
       <c r="AW37" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX37" t="s" s="0">
         <v>113</v>
@@ -8607,7 +8504,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>71</v>
@@ -8648,62 +8545,62 @@
       <c r="N38" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O38" t="n" s="74">
-        <v>168144.0</v>
-      </c>
-      <c r="P38" t="n" s="75">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q38" t="s" s="0">
+      <c r="O38" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P38" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q38" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R38" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R38" t="s" s="0">
+      <c r="S38" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S38" t="s" s="0">
+      <c r="T38" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T38" t="s" s="0">
+      <c r="U38" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U38" t="s" s="0">
+      <c r="V38" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V38" t="s" s="0">
+      <c r="W38" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W38" t="s" s="0">
+      <c r="X38" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X38" t="s" s="0">
+      <c r="Y38" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y38" t="s" s="0">
+      <c r="Z38" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z38" t="s" s="0">
+      <c r="AA38" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA38" t="s" s="0">
+      <c r="AB38" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB38" t="s" s="0">
+      <c r="AC38" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC38" t="s" s="0">
+      <c r="AD38" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD38" t="s" s="0">
+      <c r="AE38" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE38" t="s" s="0">
+      <c r="AF38" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF38" t="s" s="0">
+      <c r="AG38" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG38" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH38" t="s" s="0">
         <v>100</v>
@@ -8751,7 +8648,7 @@
         <v>82</v>
       </c>
       <c r="AW38" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX38" t="s" s="0">
         <v>113</v>
@@ -8819,7 +8716,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>71</v>
@@ -8860,62 +8757,62 @@
       <c r="N39" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O39" t="n" s="76">
-        <v>168144.0</v>
-      </c>
-      <c r="P39" t="n" s="77">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q39" t="s" s="0">
+      <c r="O39" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P39" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q39" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R39" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R39" t="s" s="0">
+      <c r="S39" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S39" t="s" s="0">
+      <c r="T39" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T39" t="s" s="0">
+      <c r="U39" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U39" t="s" s="0">
+      <c r="V39" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V39" t="s" s="0">
+      <c r="W39" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W39" t="s" s="0">
+      <c r="X39" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X39" t="s" s="0">
+      <c r="Y39" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y39" t="s" s="0">
+      <c r="Z39" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z39" t="s" s="0">
+      <c r="AA39" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA39" t="s" s="0">
+      <c r="AB39" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB39" t="s" s="0">
+      <c r="AC39" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC39" t="s" s="0">
+      <c r="AD39" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD39" t="s" s="0">
+      <c r="AE39" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE39" t="s" s="0">
+      <c r="AF39" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF39" t="s" s="0">
+      <c r="AG39" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG39" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH39" t="s" s="0">
         <v>100</v>
@@ -8963,7 +8860,7 @@
         <v>82</v>
       </c>
       <c r="AW39" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX39" t="s" s="0">
         <v>113</v>
@@ -9031,7 +8928,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s" s="0">
         <v>71</v>
@@ -9072,62 +8969,62 @@
       <c r="N40" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O40" t="n" s="78">
-        <v>168144.0</v>
-      </c>
-      <c r="P40" t="n" s="79">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q40" t="s" s="0">
+      <c r="O40" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P40" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q40" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R40" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R40" t="s" s="0">
+      <c r="S40" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S40" t="s" s="0">
+      <c r="T40" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T40" t="s" s="0">
+      <c r="U40" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U40" t="s" s="0">
+      <c r="V40" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V40" t="s" s="0">
+      <c r="W40" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W40" t="s" s="0">
+      <c r="X40" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X40" t="s" s="0">
+      <c r="Y40" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y40" t="s" s="0">
+      <c r="Z40" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z40" t="s" s="0">
+      <c r="AA40" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA40" t="s" s="0">
+      <c r="AB40" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB40" t="s" s="0">
+      <c r="AC40" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC40" t="s" s="0">
+      <c r="AD40" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD40" t="s" s="0">
+      <c r="AE40" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE40" t="s" s="0">
+      <c r="AF40" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF40" t="s" s="0">
+      <c r="AG40" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG40" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH40" t="s" s="0">
         <v>100</v>
@@ -9175,7 +9072,7 @@
         <v>82</v>
       </c>
       <c r="AW40" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX40" t="s" s="0">
         <v>113</v>
@@ -9243,7 +9140,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>71</v>
@@ -9284,62 +9181,62 @@
       <c r="N41" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O41" t="n" s="80">
-        <v>168144.0</v>
-      </c>
-      <c r="P41" t="n" s="81">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q41" t="s" s="0">
+      <c r="O41" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P41" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q41" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R41" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R41" t="s" s="0">
+      <c r="S41" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S41" t="s" s="0">
+      <c r="T41" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T41" t="s" s="0">
+      <c r="U41" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U41" t="s" s="0">
+      <c r="V41" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V41" t="s" s="0">
+      <c r="W41" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W41" t="s" s="0">
+      <c r="X41" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X41" t="s" s="0">
+      <c r="Y41" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y41" t="s" s="0">
+      <c r="Z41" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z41" t="s" s="0">
+      <c r="AA41" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA41" t="s" s="0">
+      <c r="AB41" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB41" t="s" s="0">
+      <c r="AC41" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC41" t="s" s="0">
+      <c r="AD41" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD41" t="s" s="0">
+      <c r="AE41" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE41" t="s" s="0">
+      <c r="AF41" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF41" t="s" s="0">
+      <c r="AG41" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG41" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH41" t="s" s="0">
         <v>100</v>
@@ -9387,7 +9284,7 @@
         <v>82</v>
       </c>
       <c r="AW41" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX41" t="s" s="0">
         <v>113</v>
@@ -9455,7 +9352,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s" s="0">
         <v>71</v>
@@ -9496,62 +9393,62 @@
       <c r="N42" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O42" t="n" s="82">
-        <v>168144.0</v>
-      </c>
-      <c r="P42" t="n" s="83">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q42" t="s" s="0">
+      <c r="O42" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P42" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q42" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R42" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R42" t="s" s="0">
+      <c r="S42" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S42" t="s" s="0">
+      <c r="T42" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T42" t="s" s="0">
+      <c r="U42" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U42" t="s" s="0">
+      <c r="V42" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V42" t="s" s="0">
+      <c r="W42" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W42" t="s" s="0">
+      <c r="X42" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X42" t="s" s="0">
+      <c r="Y42" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y42" t="s" s="0">
+      <c r="Z42" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z42" t="s" s="0">
+      <c r="AA42" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA42" t="s" s="0">
+      <c r="AB42" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB42" t="s" s="0">
+      <c r="AC42" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC42" t="s" s="0">
+      <c r="AD42" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD42" t="s" s="0">
+      <c r="AE42" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE42" t="s" s="0">
+      <c r="AF42" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF42" t="s" s="0">
+      <c r="AG42" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG42" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH42" t="s" s="0">
         <v>100</v>
@@ -9599,7 +9496,7 @@
         <v>82</v>
       </c>
       <c r="AW42" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX42" t="s" s="0">
         <v>113</v>
@@ -9667,7 +9564,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s" s="0">
         <v>71</v>
@@ -9708,62 +9605,62 @@
       <c r="N43" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O43" t="n" s="84">
-        <v>168144.0</v>
-      </c>
-      <c r="P43" t="n" s="85">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q43" t="s" s="0">
+      <c r="O43" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P43" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q43" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R43" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R43" t="s" s="0">
+      <c r="S43" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S43" t="s" s="0">
+      <c r="T43" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T43" t="s" s="0">
+      <c r="U43" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U43" t="s" s="0">
+      <c r="V43" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V43" t="s" s="0">
+      <c r="W43" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W43" t="s" s="0">
+      <c r="X43" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X43" t="s" s="0">
+      <c r="Y43" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y43" t="s" s="0">
+      <c r="Z43" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z43" t="s" s="0">
+      <c r="AA43" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA43" t="s" s="0">
+      <c r="AB43" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB43" t="s" s="0">
+      <c r="AC43" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC43" t="s" s="0">
+      <c r="AD43" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD43" t="s" s="0">
+      <c r="AE43" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE43" t="s" s="0">
+      <c r="AF43" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF43" t="s" s="0">
+      <c r="AG43" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG43" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH43" t="s" s="0">
         <v>100</v>
@@ -9811,7 +9708,7 @@
         <v>82</v>
       </c>
       <c r="AW43" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX43" t="s" s="0">
         <v>113</v>
@@ -9879,7 +9776,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>71</v>
@@ -9920,62 +9817,62 @@
       <c r="N44" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O44" t="n" s="86">
-        <v>168144.0</v>
-      </c>
-      <c r="P44" t="n" s="87">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q44" t="s" s="0">
+      <c r="O44" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P44" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q44" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R44" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R44" t="s" s="0">
+      <c r="S44" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S44" t="s" s="0">
+      <c r="T44" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T44" t="s" s="0">
+      <c r="U44" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U44" t="s" s="0">
+      <c r="V44" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V44" t="s" s="0">
+      <c r="W44" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W44" t="s" s="0">
+      <c r="X44" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X44" t="s" s="0">
+      <c r="Y44" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y44" t="s" s="0">
+      <c r="Z44" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z44" t="s" s="0">
+      <c r="AA44" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA44" t="s" s="0">
+      <c r="AB44" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB44" t="s" s="0">
+      <c r="AC44" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC44" t="s" s="0">
+      <c r="AD44" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD44" t="s" s="0">
+      <c r="AE44" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE44" t="s" s="0">
+      <c r="AF44" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF44" t="s" s="0">
+      <c r="AG44" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG44" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH44" t="s" s="0">
         <v>100</v>
@@ -10023,7 +9920,7 @@
         <v>82</v>
       </c>
       <c r="AW44" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX44" t="s" s="0">
         <v>113</v>
@@ -10091,7 +9988,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>71</v>
@@ -10132,62 +10029,62 @@
       <c r="N45" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O45" t="n" s="88">
-        <v>168144.0</v>
-      </c>
-      <c r="P45" t="n" s="89">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q45" t="s" s="0">
+      <c r="O45" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P45" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q45" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R45" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R45" t="s" s="0">
+      <c r="S45" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S45" t="s" s="0">
+      <c r="T45" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T45" t="s" s="0">
+      <c r="U45" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U45" t="s" s="0">
+      <c r="V45" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V45" t="s" s="0">
+      <c r="W45" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W45" t="s" s="0">
+      <c r="X45" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X45" t="s" s="0">
+      <c r="Y45" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y45" t="s" s="0">
+      <c r="Z45" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z45" t="s" s="0">
+      <c r="AA45" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA45" t="s" s="0">
+      <c r="AB45" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB45" t="s" s="0">
+      <c r="AC45" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC45" t="s" s="0">
+      <c r="AD45" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD45" t="s" s="0">
+      <c r="AE45" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE45" t="s" s="0">
+      <c r="AF45" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF45" t="s" s="0">
+      <c r="AG45" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG45" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH45" t="s" s="0">
         <v>100</v>
@@ -10235,7 +10132,7 @@
         <v>82</v>
       </c>
       <c r="AW45" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX45" t="s" s="0">
         <v>113</v>
@@ -10303,7 +10200,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>71</v>
@@ -10344,62 +10241,62 @@
       <c r="N46" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O46" t="n" s="90">
-        <v>168144.0</v>
-      </c>
-      <c r="P46" t="n" s="91">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q46" t="s" s="0">
+      <c r="O46" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P46" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q46" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R46" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R46" t="s" s="0">
+      <c r="S46" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S46" t="s" s="0">
+      <c r="T46" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T46" t="s" s="0">
+      <c r="U46" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U46" t="s" s="0">
+      <c r="V46" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V46" t="s" s="0">
+      <c r="W46" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W46" t="s" s="0">
+      <c r="X46" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X46" t="s" s="0">
+      <c r="Y46" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y46" t="s" s="0">
+      <c r="Z46" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z46" t="s" s="0">
+      <c r="AA46" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA46" t="s" s="0">
+      <c r="AB46" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB46" t="s" s="0">
+      <c r="AC46" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC46" t="s" s="0">
+      <c r="AD46" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD46" t="s" s="0">
+      <c r="AE46" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE46" t="s" s="0">
+      <c r="AF46" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF46" t="s" s="0">
+      <c r="AG46" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG46" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH46" t="s" s="0">
         <v>100</v>
@@ -10447,7 +10344,7 @@
         <v>82</v>
       </c>
       <c r="AW46" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX46" t="s" s="0">
         <v>113</v>
@@ -10515,7 +10412,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>71</v>
@@ -10556,62 +10453,62 @@
       <c r="N47" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O47" t="n" s="92">
-        <v>168144.0</v>
-      </c>
-      <c r="P47" t="n" s="93">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q47" t="s" s="0">
+      <c r="O47" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P47" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q47" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R47" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R47" t="s" s="0">
+      <c r="S47" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S47" t="s" s="0">
+      <c r="T47" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T47" t="s" s="0">
+      <c r="U47" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U47" t="s" s="0">
+      <c r="V47" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V47" t="s" s="0">
+      <c r="W47" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W47" t="s" s="0">
+      <c r="X47" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X47" t="s" s="0">
+      <c r="Y47" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y47" t="s" s="0">
+      <c r="Z47" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z47" t="s" s="0">
+      <c r="AA47" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA47" t="s" s="0">
+      <c r="AB47" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB47" t="s" s="0">
+      <c r="AC47" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC47" t="s" s="0">
+      <c r="AD47" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD47" t="s" s="0">
+      <c r="AE47" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE47" t="s" s="0">
+      <c r="AF47" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF47" t="s" s="0">
+      <c r="AG47" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG47" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH47" t="s" s="0">
         <v>100</v>
@@ -10659,7 +10556,7 @@
         <v>82</v>
       </c>
       <c r="AW47" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX47" t="s" s="0">
         <v>113</v>
@@ -10727,7 +10624,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>71</v>
@@ -10768,62 +10665,62 @@
       <c r="N48" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O48" t="n" s="94">
-        <v>168144.0</v>
-      </c>
-      <c r="P48" t="n" s="95">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q48" t="s" s="0">
+      <c r="O48" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P48" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q48" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R48" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R48" t="s" s="0">
+      <c r="S48" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S48" t="s" s="0">
+      <c r="T48" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T48" t="s" s="0">
+      <c r="U48" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U48" t="s" s="0">
+      <c r="V48" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V48" t="s" s="0">
+      <c r="W48" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W48" t="s" s="0">
+      <c r="X48" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X48" t="s" s="0">
+      <c r="Y48" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y48" t="s" s="0">
+      <c r="Z48" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z48" t="s" s="0">
+      <c r="AA48" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA48" t="s" s="0">
+      <c r="AB48" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB48" t="s" s="0">
+      <c r="AC48" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC48" t="s" s="0">
+      <c r="AD48" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD48" t="s" s="0">
+      <c r="AE48" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE48" t="s" s="0">
+      <c r="AF48" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF48" t="s" s="0">
+      <c r="AG48" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG48" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH48" t="s" s="0">
         <v>100</v>
@@ -10871,7 +10768,7 @@
         <v>82</v>
       </c>
       <c r="AW48" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX48" t="s" s="0">
         <v>113</v>
@@ -10939,7 +10836,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s" s="0">
         <v>71</v>
@@ -10980,62 +10877,62 @@
       <c r="N49" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="O49" t="n" s="96">
-        <v>168144.0</v>
-      </c>
-      <c r="P49" t="n" s="97">
-        <v>9513146.0</v>
-      </c>
-      <c r="Q49" t="s" s="0">
+      <c r="O49" t="n" s="2">
+        <v>1.681441E7</v>
+      </c>
+      <c r="P49" t="n" s="2">
+        <v>9.51314677E8</v>
+      </c>
+      <c r="Q49" t="n" s="2">
+        <v>2.02503228892E11</v>
+      </c>
+      <c r="R49" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="R49" t="s" s="0">
+      <c r="S49" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="S49" t="s" s="0">
+      <c r="T49" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="T49" t="s" s="0">
+      <c r="U49" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="U49" t="s" s="0">
+      <c r="V49" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="V49" t="s" s="0">
+      <c r="W49" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="W49" t="s" s="0">
+      <c r="X49" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="X49" t="s" s="0">
+      <c r="Y49" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="Y49" t="s" s="0">
+      <c r="Z49" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="Z49" t="s" s="0">
+      <c r="AA49" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="AA49" t="s" s="0">
+      <c r="AB49" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="AB49" t="s" s="0">
+      <c r="AC49" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="AC49" t="s" s="0">
+      <c r="AD49" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="AD49" t="s" s="0">
+      <c r="AE49" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="AE49" t="s" s="0">
+      <c r="AF49" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="AF49" t="s" s="0">
+      <c r="AG49" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="AG49" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="AH49" t="s" s="0">
         <v>100</v>
@@ -11083,7 +10980,7 @@
         <v>82</v>
       </c>
       <c r="AW49" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX49" t="s" s="0">
         <v>113</v>
